--- a/outputs/regressions/A3_low_lower_simple_tables.xlsx
+++ b/outputs/regressions/A3_low_lower_simple_tables.xlsx
@@ -1897,7 +1897,7 @@
         <v>2.008007508241509</v>
       </c>
       <c r="C3">
-        <v>0.976</v>
+        <v>0.992</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
